--- a/resources/excel/lux22-2.xlsx
+++ b/resources/excel/lux22-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\codeweek\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74E04CA-4682-4F68-8553-680847557595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03777F47-6E14-4E13-95DF-EADB706EFA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1605" yWindow="2085" windowWidth="34065" windowHeight="18525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="71">
   <si>
     <t>Activity Title</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Creative computing: Robotics - Beginner</t>
   </si>
   <si>
-    <t>LU,DE,FR,EN</t>
-  </si>
-  <si>
     <t>educoding@men.lu</t>
   </si>
   <si>
@@ -214,18 +211,6 @@
     <t> 6,100250</t>
   </si>
   <si>
-    <t> 6,100251</t>
-  </si>
-  <si>
-    <t> 6,100252</t>
-  </si>
-  <si>
-    <t> 6,100253</t>
-  </si>
-  <si>
-    <t> 6,100254</t>
-  </si>
-  <si>
     <t>"Robotec" - Coding Workshops für Grundschulklassen</t>
   </si>
   <si>
@@ -251,6 +236,9 @@
   </si>
   <si>
     <t>https://codeweek-s3.s3.eu-west-1.amazonaws.com/cw2022/nortic.png</t>
+  </si>
+  <si>
+    <t>49,5173601,</t>
   </si>
 </sst>
 </file>
@@ -692,7 +680,7 @@
   <dimension ref="A1:R148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -779,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>1.2</v>
@@ -791,10 +779,10 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="7">
         <v>44837</v>
@@ -806,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="8">
         <v>6.4407589999999999</v>
@@ -815,7 +803,7 @@
         <v>49.680841000000001</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R2">
         <v>160857</v>
@@ -835,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>1.2</v>
@@ -847,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="7">
         <v>44839</v>
@@ -862,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="8">
         <v>6.0211740000000002</v>
@@ -871,7 +859,7 @@
         <v>49.629423000000003</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R3">
         <v>160857</v>
@@ -891,7 +879,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>1.2</v>
@@ -903,10 +891,10 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7">
         <v>44841</v>
@@ -918,16 +906,16 @@
         <v>22</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P4" s="8">
         <v>49.519212000000003</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R4">
         <v>160857</v>
@@ -947,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>1.2</v>
@@ -959,10 +947,10 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="9">
         <v>44844</v>
@@ -974,7 +962,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="8">
         <v>5.88896</v>
@@ -983,7 +971,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R5">
         <v>160857</v>
@@ -1003,7 +991,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>1.2</v>
@@ -1015,10 +1003,10 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="9">
         <v>44845</v>
@@ -1030,7 +1018,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="8">
         <v>6.0211740000000002</v>
@@ -1039,7 +1027,7 @@
         <v>49.629423000000003</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R6">
         <v>160857</v>
@@ -1059,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>1.2</v>
@@ -1071,10 +1059,10 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="9">
         <v>44846</v>
@@ -1086,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O7" s="8">
         <v>6.3674220000000004</v>
@@ -1095,7 +1083,7 @@
         <v>49.545017000000001</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R7">
         <v>160857</v>
@@ -1115,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>1.2</v>
@@ -1127,10 +1115,10 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="9">
         <v>44847</v>
@@ -1142,7 +1130,7 @@
         <v>22</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="8">
         <v>6.102779</v>
@@ -1151,7 +1139,7 @@
         <v>49.752828999999998</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R8">
         <v>160857</v>
@@ -1171,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>1.2</v>
@@ -1183,10 +1171,10 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7">
         <v>44847</v>
@@ -1198,7 +1186,7 @@
         <v>22</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="8">
         <v>6.3674220000000004</v>
@@ -1207,7 +1195,7 @@
         <v>49.545017000000001</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R9">
         <v>160857</v>
@@ -1227,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>1.2</v>
@@ -1239,10 +1227,10 @@
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7">
         <v>44848</v>
@@ -1254,7 +1242,7 @@
         <v>22</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" s="8">
         <v>5.9324310000000002</v>
@@ -1263,7 +1251,7 @@
         <v>49.96622</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R10">
         <v>160857</v>
@@ -1283,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>1.2</v>
@@ -1295,10 +1283,10 @@
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7">
         <v>44851</v>
@@ -1310,7 +1298,7 @@
         <v>22</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8">
         <v>5.88896</v>
@@ -1319,7 +1307,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R11">
         <v>160857</v>
@@ -1339,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>1.2</v>
@@ -1351,10 +1339,10 @@
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="9">
         <v>44851</v>
@@ -1366,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8">
         <v>6.102779</v>
@@ -1375,7 +1363,7 @@
         <v>49.752828999999998</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R12">
         <v>160857</v>
@@ -1395,7 +1383,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>1.2</v>
@@ -1407,10 +1395,10 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" s="9">
         <v>44852</v>
@@ -1422,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8">
         <v>5.9860930000000003</v>
@@ -1431,7 +1419,7 @@
         <v>49.500881</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R13">
         <v>160857</v>
@@ -1451,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>1.2</v>
@@ -1463,10 +1451,10 @@
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7">
         <v>44853</v>
@@ -1478,7 +1466,7 @@
         <v>22</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O14" s="8">
         <v>5.8758660000000003</v>
@@ -1487,7 +1475,7 @@
         <v>49.555974999999997</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R14">
         <v>160857</v>
@@ -1507,7 +1495,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>1.2</v>
@@ -1519,10 +1507,10 @@
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="9">
         <v>44853</v>
@@ -1534,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8">
         <v>6.102779</v>
@@ -1543,7 +1531,7 @@
         <v>49.752828999999998</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R15">
         <v>160857</v>
@@ -1563,7 +1551,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>1.2</v>
@@ -1575,10 +1563,10 @@
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7">
         <v>44854</v>
@@ -1590,7 +1578,7 @@
         <v>22</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8">
         <v>6.102779</v>
@@ -1599,7 +1587,7 @@
         <v>49.752828999999998</v>
       </c>
       <c r="Q16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R16">
         <v>160857</v>
@@ -1619,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>1.2</v>
@@ -1631,10 +1619,10 @@
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" s="9">
         <v>44855</v>
@@ -1646,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O17" s="8">
         <v>6.0211740000000002</v>
@@ -1655,7 +1643,7 @@
         <v>49.629423000000003</v>
       </c>
       <c r="Q17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R17">
         <v>160857</v>
@@ -1675,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18">
         <v>1.2</v>
@@ -1687,10 +1675,10 @@
         <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="9">
         <v>44858</v>
@@ -1702,7 +1690,7 @@
         <v>22</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O18" s="8">
         <v>6.102779</v>
@@ -1711,7 +1699,7 @@
         <v>49.752828999999998</v>
       </c>
       <c r="Q18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R18">
         <v>160857</v>
@@ -1731,7 +1719,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <v>1.2</v>
@@ -1743,10 +1731,10 @@
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7">
         <v>44858</v>
@@ -1758,7 +1746,7 @@
         <v>22</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" s="8">
         <v>6.4407589999999999</v>
@@ -1767,7 +1755,7 @@
         <v>49.680841000000001</v>
       </c>
       <c r="Q19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R19">
         <v>160857</v>
@@ -1787,7 +1775,7 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>1.2</v>
@@ -1799,10 +1787,10 @@
         <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" s="9">
         <v>44860</v>
@@ -1814,7 +1802,7 @@
         <v>22</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O20" s="8">
         <v>5.8758660000000003</v>
@@ -1823,7 +1811,7 @@
         <v>49.555974999999997</v>
       </c>
       <c r="Q20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R20">
         <v>160857</v>
@@ -1843,7 +1831,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21">
         <v>1.2</v>
@@ -1855,10 +1843,10 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21" s="7">
         <v>44859</v>
@@ -1870,7 +1858,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O21" s="8">
         <v>6.1319346000000001</v>
@@ -1879,7 +1867,7 @@
         <v>49.611621</v>
       </c>
       <c r="Q21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R21">
         <v>160857</v>
@@ -1899,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22">
         <v>1.2</v>
@@ -1911,10 +1899,10 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="7">
         <v>44860</v>
@@ -1926,7 +1914,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O22" s="8">
         <v>6.1319346000000001</v>
@@ -1935,7 +1923,7 @@
         <v>49.611621</v>
       </c>
       <c r="Q22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R22">
         <v>160857</v>
@@ -1955,7 +1943,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <v>1.2</v>
@@ -1967,10 +1955,10 @@
         <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23" s="7">
         <v>44862</v>
@@ -1982,7 +1970,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O23" s="8">
         <v>5.88896</v>
@@ -1991,7 +1979,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R23">
         <v>160857</v>
@@ -2011,7 +1999,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <v>1.2</v>
@@ -2023,10 +2011,10 @@
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7">
         <v>44872</v>
@@ -2038,7 +2026,7 @@
         <v>22</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O24" s="8">
         <v>5.9324310000000002</v>
@@ -2047,7 +2035,7 @@
         <v>49.96622</v>
       </c>
       <c r="Q24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R24">
         <v>160857</v>
@@ -2067,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>1.2</v>
@@ -2079,10 +2067,10 @@
         <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25" s="7">
         <v>44873</v>
@@ -2094,7 +2082,7 @@
         <v>22</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8">
         <v>5.9324310000000002</v>
@@ -2103,7 +2091,7 @@
         <v>49.96622</v>
       </c>
       <c r="Q25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R25">
         <v>160857</v>
@@ -2123,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>1.2</v>
@@ -2135,10 +2123,10 @@
         <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" s="9">
         <v>44873</v>
@@ -2150,16 +2138,16 @@
         <v>22</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P26" s="8">
-        <v>52.519212000000003</v>
+        <v>49.519212000000003</v>
       </c>
       <c r="Q26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R26">
         <v>160857</v>
@@ -2179,7 +2167,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27">
         <v>1.2</v>
@@ -2191,10 +2179,10 @@
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7">
         <v>44876</v>
@@ -2206,7 +2194,7 @@
         <v>22</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8">
         <v>6.1595630000000003</v>
@@ -2215,7 +2203,7 @@
         <v>49.867178000000003</v>
       </c>
       <c r="Q27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R27">
         <v>160857</v>
@@ -2235,7 +2223,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28">
         <v>1.2</v>
@@ -2247,10 +2235,10 @@
         <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7">
         <v>44881</v>
@@ -2262,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8">
         <v>6.0211740000000002</v>
@@ -2271,7 +2259,7 @@
         <v>49.629423000000003</v>
       </c>
       <c r="Q28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R28">
         <v>160857</v>
@@ -2291,7 +2279,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29">
         <v>1.2</v>
@@ -2303,10 +2291,10 @@
         <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29" s="9">
         <v>44882</v>
@@ -2318,7 +2306,7 @@
         <v>22</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8">
         <v>5.9860930000000003</v>
@@ -2327,7 +2315,7 @@
         <v>49.500881</v>
       </c>
       <c r="Q29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R29">
         <v>160857</v>
@@ -2347,7 +2335,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>1.2</v>
@@ -2359,10 +2347,10 @@
         <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30" s="9">
         <v>44888</v>
@@ -2374,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8">
         <v>5.88896</v>
@@ -2383,7 +2371,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R30">
         <v>160857</v>
@@ -2403,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31">
         <v>1.2</v>
@@ -2415,10 +2403,10 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" s="9">
         <v>44894</v>
@@ -2430,7 +2418,7 @@
         <v>22</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O31" s="8">
         <v>5.9300040000000003</v>
@@ -2439,7 +2427,7 @@
         <v>49.547564000000001</v>
       </c>
       <c r="Q31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R31">
         <v>160857</v>
@@ -2459,7 +2447,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32">
         <v>1.2</v>
@@ -2471,10 +2459,10 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32" s="7">
         <v>44894</v>
@@ -2486,7 +2474,7 @@
         <v>22</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O32" s="8">
         <v>6.1595630000000003</v>
@@ -2495,7 +2483,7 @@
         <v>49.867178000000003</v>
       </c>
       <c r="Q32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R32">
         <v>160857</v>
@@ -2515,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33">
         <v>1.2</v>
@@ -2527,10 +2515,10 @@
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33" s="7">
         <v>44896</v>
@@ -2542,7 +2530,7 @@
         <v>22</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O33" s="8">
         <v>6.1319346000000001</v>
@@ -2551,7 +2539,7 @@
         <v>49.611621</v>
       </c>
       <c r="Q33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R33">
         <v>160857</v>
@@ -2571,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34">
         <v>1.2</v>
@@ -2583,10 +2571,10 @@
         <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34" s="9">
         <v>44897</v>
@@ -2598,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8">
         <v>6.1319346000000001</v>
@@ -2607,7 +2595,7 @@
         <v>49.611621</v>
       </c>
       <c r="Q34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R34">
         <v>160857</v>
@@ -2627,7 +2615,7 @@
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35">
         <v>1.2</v>
@@ -2639,10 +2627,10 @@
         <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35" s="9">
         <v>44903</v>
@@ -2654,7 +2642,7 @@
         <v>22</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8">
         <v>6.3674220000000004</v>
@@ -2663,7 +2651,7 @@
         <v>49.545017000000001</v>
       </c>
       <c r="Q35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R35">
         <v>160857</v>
@@ -2683,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36">
         <v>1.2</v>
@@ -2695,10 +2683,10 @@
         <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36" s="9">
         <v>44903</v>
@@ -2710,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O36" s="8">
         <v>6.3674220000000004</v>
@@ -2719,7 +2707,7 @@
         <v>49.545017000000001</v>
       </c>
       <c r="Q36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R36">
         <v>160857</v>
@@ -2739,7 +2727,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37">
         <v>1.2</v>
@@ -2751,10 +2739,10 @@
         <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37" s="9">
         <v>44862</v>
@@ -2766,7 +2754,7 @@
         <v>22</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O37" s="8">
         <v>6.1319346000000001</v>
@@ -2775,7 +2763,7 @@
         <v>49.611621</v>
       </c>
       <c r="Q37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R37">
         <v>160857</v>
@@ -2795,7 +2783,7 @@
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38">
         <v>1.2</v>
@@ -2807,10 +2795,10 @@
         <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38" s="9">
         <v>44874</v>
@@ -2822,16 +2810,16 @@
         <v>22</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="O38" s="8">
+        <v>5.9563208999999997</v>
       </c>
       <c r="P38" s="8">
-        <v>50.519212000000003</v>
+        <v>49.517360099999998</v>
       </c>
       <c r="Q38" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R38">
         <v>160857</v>
@@ -2851,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39">
         <v>1.2</v>
@@ -2863,10 +2851,10 @@
         <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39" s="9">
         <v>44875</v>
@@ -2878,7 +2866,7 @@
         <v>22</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O39" s="8">
         <v>6.3674220000000004</v>
@@ -2887,7 +2875,7 @@
         <v>49.545017000000001</v>
       </c>
       <c r="Q39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R39">
         <v>160857</v>
@@ -2907,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40">
         <v>1.2</v>
@@ -2919,10 +2907,10 @@
         <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40" s="9">
         <v>44910</v>
@@ -2934,7 +2922,7 @@
         <v>22</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8">
         <v>6.4407589999999999</v>
@@ -2943,7 +2931,7 @@
         <v>49.680841000000001</v>
       </c>
       <c r="Q40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R40">
         <v>160857</v>
@@ -2963,7 +2951,7 @@
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41">
         <v>1.2</v>
@@ -2975,10 +2963,10 @@
         <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41" s="9">
         <v>44903</v>
@@ -2990,7 +2978,7 @@
         <v>22</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O41" s="8">
         <v>6.4407589999999999</v>
@@ -2999,7 +2987,7 @@
         <v>49.680841000000001</v>
       </c>
       <c r="Q41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R41">
         <v>160857</v>
@@ -3019,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42">
         <v>1.2</v>
@@ -3031,10 +3019,10 @@
         <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42" s="9">
         <v>44908</v>
@@ -3046,7 +3034,7 @@
         <v>22</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O42" s="8">
         <v>6.4407589999999999</v>
@@ -3055,7 +3043,7 @@
         <v>49.680841000000001</v>
       </c>
       <c r="Q42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R42">
         <v>160857</v>
@@ -3075,7 +3063,7 @@
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43">
         <v>1.2</v>
@@ -3087,10 +3075,10 @@
         <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" s="9">
         <v>44896</v>
@@ -3102,7 +3090,7 @@
         <v>22</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O43" s="8">
         <v>6.4175639999999996</v>
@@ -3111,7 +3099,7 @@
         <v>49.811413000000002</v>
       </c>
       <c r="Q43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R43">
         <v>160857</v>
@@ -3131,7 +3119,7 @@
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44">
         <v>1.2</v>
@@ -3143,10 +3131,10 @@
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44" s="9">
         <v>44903</v>
@@ -3158,7 +3146,7 @@
         <v>22</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8">
         <v>6.4175639999999996</v>
@@ -3167,7 +3155,7 @@
         <v>49.811413000000002</v>
       </c>
       <c r="Q44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R44">
         <v>160857</v>
@@ -3187,7 +3175,7 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45">
         <v>1.2</v>
@@ -3199,10 +3187,10 @@
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="9">
         <v>44886</v>
@@ -3214,7 +3202,7 @@
         <v>22</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8">
         <v>6.4175639999999996</v>
@@ -3223,7 +3211,7 @@
         <v>49.811413000000002</v>
       </c>
       <c r="Q45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R45">
         <v>160857</v>
@@ -3243,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46">
         <v>1.2</v>
@@ -3255,10 +3243,10 @@
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K46" s="9">
         <v>44888</v>
@@ -3270,7 +3258,7 @@
         <v>22</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8">
         <v>5.8894799999999998</v>
@@ -3279,7 +3267,7 @@
         <v>49.76455</v>
       </c>
       <c r="Q46" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R46">
         <v>160857</v>
@@ -3299,7 +3287,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47">
         <v>1.2</v>
@@ -3311,10 +3299,10 @@
         <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K47" s="9">
         <v>44889</v>
@@ -3326,7 +3314,7 @@
         <v>22</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8">
         <v>5.8894799999999998</v>
@@ -3335,7 +3323,7 @@
         <v>49.76455</v>
       </c>
       <c r="Q47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R47">
         <v>160857</v>
@@ -3355,7 +3343,7 @@
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48">
         <v>1.2</v>
@@ -3367,10 +3355,10 @@
         <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K48" s="9">
         <v>44909</v>
@@ -3382,7 +3370,7 @@
         <v>22</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O48" s="8">
         <v>5.9324310000000002</v>
@@ -3391,7 +3379,7 @@
         <v>49.96622</v>
       </c>
       <c r="Q48" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R48">
         <v>160857</v>
@@ -3411,7 +3399,7 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49">
         <v>1.2</v>
@@ -3423,10 +3411,10 @@
         <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K49" s="9">
         <v>44872</v>
@@ -3438,16 +3426,16 @@
         <v>22</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P49" s="8">
-        <v>51.519212000000003</v>
+        <v>33</v>
+      </c>
+      <c r="O49" s="8">
+        <v>5.9563208999999997</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="Q49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R49">
         <v>160857</v>
@@ -3467,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50">
         <v>1.2</v>
@@ -3479,10 +3467,10 @@
         <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50" s="9">
         <v>44915</v>
@@ -3494,7 +3482,7 @@
         <v>22</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8">
         <v>6.0211740000000002</v>
@@ -3503,7 +3491,7 @@
         <v>49.629423000000003</v>
       </c>
       <c r="Q50" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R50">
         <v>160857</v>
@@ -3523,7 +3511,7 @@
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51">
         <v>1.2</v>
@@ -3535,10 +3523,10 @@
         <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51" s="9">
         <v>44881</v>
@@ -3550,7 +3538,7 @@
         <v>22</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O51" s="8">
         <v>5.8758660000000003</v>
@@ -3559,7 +3547,7 @@
         <v>49.555974999999997</v>
       </c>
       <c r="Q51" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R51">
         <v>160857</v>
@@ -3579,7 +3567,7 @@
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F52">
         <v>1.2</v>
@@ -3591,10 +3579,10 @@
         <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52" s="9">
         <v>44889</v>
@@ -3606,7 +3594,7 @@
         <v>22</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8">
         <v>5.9300040000000003</v>
@@ -3615,7 +3603,7 @@
         <v>49.547564000000001</v>
       </c>
       <c r="Q52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R52">
         <v>160857</v>
@@ -3635,7 +3623,7 @@
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53">
         <v>1.2</v>
@@ -3647,10 +3635,10 @@
         <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="9">
         <v>44875</v>
@@ -3662,7 +3650,7 @@
         <v>22</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O53" s="8">
         <v>5.9860930000000003</v>
@@ -3671,7 +3659,7 @@
         <v>49.500881</v>
       </c>
       <c r="Q53" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R53">
         <v>160857</v>
@@ -3691,7 +3679,7 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F54">
         <v>1.2</v>
@@ -3703,10 +3691,10 @@
         <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54" s="9">
         <v>44880</v>
@@ -3718,7 +3706,7 @@
         <v>22</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8">
         <v>5.88896</v>
@@ -3727,7 +3715,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R54">
         <v>160857</v>
@@ -3747,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F55">
         <v>1.2</v>
@@ -3759,10 +3747,10 @@
         <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K55" s="9">
         <v>44911</v>
@@ -3774,16 +3762,16 @@
         <v>22</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P55" s="8">
-        <v>53.519212000000003</v>
+        <v>33</v>
+      </c>
+      <c r="O55" s="8">
+        <v>5.9563208999999997</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="Q55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R55">
         <v>160857</v>
@@ -3803,7 +3791,7 @@
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F56">
         <v>1.2</v>
@@ -3815,10 +3803,10 @@
         <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K56" s="9">
         <v>44914</v>
@@ -3830,7 +3818,7 @@
         <v>22</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O56" s="8">
         <v>6.4175639999999996</v>
@@ -3839,7 +3827,7 @@
         <v>49.811413000000002</v>
       </c>
       <c r="Q56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R56">
         <v>160857</v>
@@ -3859,7 +3847,7 @@
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F57">
         <v>1.2</v>
@@ -3871,10 +3859,10 @@
         <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K57" s="9">
         <v>44872</v>
@@ -3886,7 +3874,7 @@
         <v>22</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O57" s="8">
         <v>6.102779</v>
@@ -3895,7 +3883,7 @@
         <v>49.752828999999998</v>
       </c>
       <c r="Q57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R57">
         <v>160857</v>
@@ -3915,7 +3903,7 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F58">
         <v>1.2</v>
@@ -3927,10 +3915,10 @@
         <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58" s="9">
         <v>44851</v>
@@ -3942,7 +3930,7 @@
         <v>22</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O58" s="8">
         <v>5.88896</v>
@@ -3951,7 +3939,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q58" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R58">
         <v>160857</v>
@@ -3971,7 +3959,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F59">
         <v>1.2</v>
@@ -3983,10 +3971,10 @@
         <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K59" s="9">
         <v>44883</v>
@@ -3998,7 +3986,7 @@
         <v>22</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O59" s="8">
         <v>6.102779</v>
@@ -4007,7 +3995,7 @@
         <v>49.752828999999998</v>
       </c>
       <c r="Q59" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R59">
         <v>160857</v>
@@ -4027,7 +4015,7 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60">
         <v>1.2</v>
@@ -4039,10 +4027,10 @@
         <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K60" s="9">
         <v>44862</v>
@@ -4054,7 +4042,7 @@
         <v>22</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O60" s="8">
         <v>6.4175639999999996</v>
@@ -4063,7 +4051,7 @@
         <v>49.811413000000002</v>
       </c>
       <c r="Q60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R60">
         <v>160857</v>
@@ -4083,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F61">
         <v>1.2</v>
@@ -4095,10 +4083,10 @@
         <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61" s="9">
         <v>44860</v>
@@ -4110,7 +4098,7 @@
         <v>22</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O61" s="8">
         <v>6.1319346000000001</v>
@@ -4119,7 +4107,7 @@
         <v>49.611621</v>
       </c>
       <c r="Q61" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R61">
         <v>160857</v>
@@ -4139,7 +4127,7 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F62">
         <v>1.2</v>
@@ -4151,10 +4139,10 @@
         <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62" s="9">
         <v>44854</v>
@@ -4166,7 +4154,7 @@
         <v>22</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O62" s="8">
         <v>6.1319346000000001</v>
@@ -4175,7 +4163,7 @@
         <v>49.611621</v>
       </c>
       <c r="Q62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R62">
         <v>160857</v>
@@ -4195,7 +4183,7 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F63">
         <v>1.2</v>
@@ -4207,10 +4195,10 @@
         <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63" s="9">
         <v>44861</v>
@@ -4222,7 +4210,7 @@
         <v>22</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O63" s="8">
         <v>6.1319346000000001</v>
@@ -4231,7 +4219,7 @@
         <v>49.611621</v>
       </c>
       <c r="Q63" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R63">
         <v>160857</v>
@@ -4251,7 +4239,7 @@
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F64">
         <v>1.2</v>
@@ -4263,10 +4251,10 @@
         <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64" s="9">
         <v>44853</v>
@@ -4278,7 +4266,7 @@
         <v>22</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O64" s="8">
         <v>6.0211740000000002</v>
@@ -4287,7 +4275,7 @@
         <v>49.629423000000003</v>
       </c>
       <c r="Q64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R64">
         <v>160857</v>
@@ -4307,7 +4295,7 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65">
         <v>1.2</v>
@@ -4319,10 +4307,10 @@
         <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65" s="9">
         <v>44876</v>
@@ -4334,7 +4322,7 @@
         <v>22</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O65" s="8">
         <v>6.0211740000000002</v>
@@ -4343,7 +4331,7 @@
         <v>49.629423000000003</v>
       </c>
       <c r="Q65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R65">
         <v>160857</v>
@@ -4363,7 +4351,7 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F66">
         <v>1.2</v>
@@ -4375,10 +4363,10 @@
         <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K66" s="9">
         <v>44860</v>
@@ -4390,7 +4378,7 @@
         <v>22</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O66" s="8">
         <v>5.8758660000000003</v>
@@ -4399,7 +4387,7 @@
         <v>49.555974999999997</v>
       </c>
       <c r="Q66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R66">
         <v>160857</v>
@@ -4419,7 +4407,7 @@
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67">
         <v>1.2</v>
@@ -4431,10 +4419,10 @@
         <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K67" s="9">
         <v>44875</v>
@@ -4446,7 +4434,7 @@
         <v>22</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O67" s="8">
         <v>5.8758660000000003</v>
@@ -4455,7 +4443,7 @@
         <v>49.555974999999997</v>
       </c>
       <c r="Q67" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R67">
         <v>160857</v>
@@ -4475,7 +4463,7 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68">
         <v>1.2</v>
@@ -4487,10 +4475,10 @@
         <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68" s="9">
         <v>44855</v>
@@ -4502,7 +4490,7 @@
         <v>22</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O68" s="8">
         <v>5.88896</v>
@@ -4511,7 +4499,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q68" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R68">
         <v>160857</v>
@@ -4531,7 +4519,7 @@
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F69">
         <v>1.2</v>
@@ -4543,10 +4531,10 @@
         <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69" s="9">
         <v>44874</v>
@@ -4558,7 +4546,7 @@
         <v>22</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O69" s="8">
         <v>5.88896</v>
@@ -4567,7 +4555,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q69" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R69">
         <v>160857</v>
@@ -4587,7 +4575,7 @@
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F70">
         <v>1.2</v>
@@ -4599,10 +4587,10 @@
         <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70" s="9">
         <v>44858</v>
@@ -4614,7 +4602,7 @@
         <v>22</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O70" s="8">
         <v>5.9300040000000003</v>
@@ -4623,7 +4611,7 @@
         <v>49.547564000000001</v>
       </c>
       <c r="Q70" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R70">
         <v>160857</v>
@@ -4643,7 +4631,7 @@
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F71">
         <v>1.2</v>
@@ -4655,10 +4643,10 @@
         <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K71" s="9">
         <v>44876</v>
@@ -4670,7 +4658,7 @@
         <v>22</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O71" s="8">
         <v>5.9300040000000003</v>
@@ -4679,7 +4667,7 @@
         <v>49.547564000000001</v>
       </c>
       <c r="Q71" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R71">
         <v>160857</v>
@@ -4699,7 +4687,7 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F72">
         <v>1.2</v>
@@ -4711,10 +4699,10 @@
         <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K72" s="9">
         <v>44874</v>
@@ -4726,7 +4714,7 @@
         <v>22</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O72" s="8">
         <v>5.9300040000000003</v>
@@ -4735,7 +4723,7 @@
         <v>49.547564000000001</v>
       </c>
       <c r="Q72" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R72">
         <v>160857</v>
@@ -4755,7 +4743,7 @@
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F73">
         <v>1.2</v>
@@ -4767,10 +4755,10 @@
         <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K73" s="9">
         <v>44855</v>
@@ -4782,7 +4770,7 @@
         <v>22</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8">
         <v>5.9860930000000003</v>
@@ -4791,7 +4779,7 @@
         <v>49.500881</v>
       </c>
       <c r="Q73" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R73">
         <v>160857</v>
@@ -4811,7 +4799,7 @@
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74">
         <v>1.2</v>
@@ -4823,10 +4811,10 @@
         <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74" s="9">
         <v>44859</v>
@@ -4838,7 +4826,7 @@
         <v>22</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O74" s="8">
         <v>5.9860930000000003</v>
@@ -4847,7 +4835,7 @@
         <v>49.500881</v>
       </c>
       <c r="Q74" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R74">
         <v>160857</v>
@@ -4867,7 +4855,7 @@
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75">
         <v>1.2</v>
@@ -4879,10 +4867,10 @@
         <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K75" s="9">
         <v>44852</v>
@@ -4894,7 +4882,7 @@
         <v>22</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8">
         <v>5.88896</v>
@@ -4903,7 +4891,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q75" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R75">
         <v>160857</v>
@@ -4923,7 +4911,7 @@
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76">
         <v>1.2</v>
@@ -4935,10 +4923,10 @@
         <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K76" s="9">
         <v>44860</v>
@@ -4950,7 +4938,7 @@
         <v>22</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O76" s="8">
         <v>5.88896</v>
@@ -4959,7 +4947,7 @@
         <v>49.522730000000003</v>
       </c>
       <c r="Q76" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R76">
         <v>160857</v>
@@ -4967,10 +4955,10 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -4979,13 +4967,13 @@
         <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
@@ -4994,7 +4982,7 @@
         <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K77" s="10">
         <v>44874.375</v>
@@ -5003,10 +4991,10 @@
         <v>44874.625</v>
       </c>
       <c r="M77" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O77" s="12">
         <v>6.0988100000000003</v>
@@ -5015,7 +5003,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q77" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R77">
         <v>222647</v>
@@ -5023,10 +5011,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -5035,13 +5023,13 @@
         <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F78">
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H78" t="s">
         <v>21</v>
@@ -5050,7 +5038,7 @@
         <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K78" s="10">
         <v>44876.375</v>
@@ -5059,10 +5047,10 @@
         <v>44876.625</v>
       </c>
       <c r="M78" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O78" s="12">
         <v>6.0988100000000003</v>
@@ -5071,7 +5059,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R78">
         <v>222647</v>
@@ -5079,10 +5067,10 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -5091,13 +5079,13 @@
         <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F79">
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H79" t="s">
         <v>21</v>
@@ -5106,7 +5094,7 @@
         <v>21</v>
       </c>
       <c r="J79" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K79" s="10">
         <v>44879.375</v>
@@ -5115,10 +5103,10 @@
         <v>44879.625</v>
       </c>
       <c r="M79" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O79" s="12">
         <v>6.0988100000000003</v>
@@ -5127,7 +5115,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q79" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R79">
         <v>222647</v>
@@ -5135,10 +5123,10 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -5147,13 +5135,13 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F80">
         <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H80" t="s">
         <v>21</v>
@@ -5162,7 +5150,7 @@
         <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K80" s="10">
         <v>44881.375</v>
@@ -5171,10 +5159,10 @@
         <v>44881.625</v>
       </c>
       <c r="M80" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O80" s="12">
         <v>6.0988100000000003</v>
@@ -5183,7 +5171,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q80" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R80">
         <v>222647</v>
@@ -5191,10 +5179,10 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
@@ -5203,13 +5191,13 @@
         <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F81">
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H81" t="s">
         <v>21</v>
@@ -5218,7 +5206,7 @@
         <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K81" s="10">
         <v>44883.375</v>
@@ -5227,10 +5215,10 @@
         <v>44883.625</v>
       </c>
       <c r="M81" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O81" s="12">
         <v>6.0988100000000003</v>
@@ -5239,7 +5227,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R81">
         <v>222647</v>
@@ -5247,10 +5235,10 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
@@ -5259,13 +5247,13 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F82">
         <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H82" t="s">
         <v>21</v>
@@ -5274,7 +5262,7 @@
         <v>21</v>
       </c>
       <c r="J82" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K82" s="10">
         <v>44886.375</v>
@@ -5283,10 +5271,10 @@
         <v>44886.625</v>
       </c>
       <c r="M82" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O82" s="12">
         <v>6.0988100000000003</v>
@@ -5295,7 +5283,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q82" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R82">
         <v>222647</v>
@@ -5303,10 +5291,10 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -5315,13 +5303,13 @@
         <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F83">
         <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
@@ -5330,7 +5318,7 @@
         <v>21</v>
       </c>
       <c r="J83" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K83" s="10">
         <v>44888.375</v>
@@ -5339,10 +5327,10 @@
         <v>44888.625</v>
       </c>
       <c r="M83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O83" s="12">
         <v>6.0988100000000003</v>
@@ -5351,7 +5339,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q83" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R83">
         <v>222647</v>
@@ -5359,10 +5347,10 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -5371,13 +5359,13 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F84">
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H84" t="s">
         <v>21</v>
@@ -5386,7 +5374,7 @@
         <v>21</v>
       </c>
       <c r="J84" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K84" s="10">
         <v>44890.375</v>
@@ -5395,10 +5383,10 @@
         <v>44890.625</v>
       </c>
       <c r="M84" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O84" s="12">
         <v>6.0988100000000003</v>
@@ -5407,7 +5395,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q84" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R84">
         <v>222647</v>
@@ -5415,10 +5403,10 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -5427,13 +5415,13 @@
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F85">
         <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H85" t="s">
         <v>21</v>
@@ -5442,7 +5430,7 @@
         <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K85" s="10">
         <v>44893.375</v>
@@ -5451,10 +5439,10 @@
         <v>44893.625</v>
       </c>
       <c r="M85" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O85" s="12">
         <v>6.0988100000000003</v>
@@ -5463,7 +5451,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q85" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R85">
         <v>222647</v>
@@ -5471,10 +5459,10 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -5483,13 +5471,13 @@
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F86">
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H86" t="s">
         <v>21</v>
@@ -5498,7 +5486,7 @@
         <v>21</v>
       </c>
       <c r="J86" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K86" s="10">
         <v>44895.375</v>
@@ -5507,10 +5495,10 @@
         <v>44895.625</v>
       </c>
       <c r="M86" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O86" s="12">
         <v>6.0988100000000003</v>
@@ -5519,7 +5507,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q86" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R86">
         <v>222647</v>
@@ -5527,10 +5515,10 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -5539,13 +5527,13 @@
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F87">
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H87" t="s">
         <v>21</v>
@@ -5554,7 +5542,7 @@
         <v>21</v>
       </c>
       <c r="J87" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K87" s="10">
         <v>44897.375</v>
@@ -5563,10 +5551,10 @@
         <v>44897.625</v>
       </c>
       <c r="M87" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O87" s="12">
         <v>6.0988100000000003</v>
@@ -5575,7 +5563,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R87">
         <v>222647</v>
@@ -5583,10 +5571,10 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -5595,13 +5583,13 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F88">
         <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H88" t="s">
         <v>21</v>
@@ -5610,7 +5598,7 @@
         <v>21</v>
       </c>
       <c r="J88" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K88" s="10">
         <v>44900.375</v>
@@ -5619,10 +5607,10 @@
         <v>44900.625</v>
       </c>
       <c r="M88" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N88" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O88" s="12">
         <v>6.0988100000000003</v>
@@ -5631,7 +5619,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q88" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R88">
         <v>222647</v>
@@ -5639,10 +5627,10 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
@@ -5651,13 +5639,13 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F89">
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H89" t="s">
         <v>21</v>
@@ -5666,7 +5654,7 @@
         <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K89" s="10">
         <v>44902.375</v>
@@ -5675,10 +5663,10 @@
         <v>44902.625</v>
       </c>
       <c r="M89" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O89" s="12">
         <v>6.0988100000000003</v>
@@ -5687,7 +5675,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q89" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R89">
         <v>222647</v>
@@ -5695,10 +5683,10 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -5707,13 +5695,13 @@
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F90">
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H90" t="s">
         <v>21</v>
@@ -5722,7 +5710,7 @@
         <v>21</v>
       </c>
       <c r="J90" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K90" s="10">
         <v>44907.375</v>
@@ -5731,10 +5719,10 @@
         <v>44907.625</v>
       </c>
       <c r="M90" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N90" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O90" s="12">
         <v>6.0988100000000003</v>
@@ -5743,7 +5731,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q90" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R90">
         <v>222647</v>
@@ -5751,10 +5739,10 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -5763,13 +5751,13 @@
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F91">
         <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H91" t="s">
         <v>21</v>
@@ -5778,7 +5766,7 @@
         <v>21</v>
       </c>
       <c r="J91" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K91" s="10">
         <v>44909.375</v>
@@ -5787,10 +5775,10 @@
         <v>44909.625</v>
       </c>
       <c r="M91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O91" s="12">
         <v>6.0988100000000003</v>
@@ -5799,7 +5787,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q91" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R91">
         <v>222647</v>
@@ -5807,10 +5795,10 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -5819,13 +5807,13 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H92" t="s">
         <v>21</v>
@@ -5834,7 +5822,7 @@
         <v>21</v>
       </c>
       <c r="J92" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K92" s="10">
         <v>44911.375</v>
@@ -5843,10 +5831,10 @@
         <v>44911.625</v>
       </c>
       <c r="M92" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O92" s="12">
         <v>6.0988100000000003</v>
@@ -5855,7 +5843,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q92" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R92">
         <v>222647</v>
@@ -5863,10 +5851,10 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -5875,13 +5863,13 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H93" t="s">
         <v>21</v>
@@ -5890,7 +5878,7 @@
         <v>21</v>
       </c>
       <c r="J93" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K93" s="10">
         <v>44914.375</v>
@@ -5899,10 +5887,10 @@
         <v>44914.625</v>
       </c>
       <c r="M93" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O93" s="12">
         <v>6.0988100000000003</v>
@@ -5911,7 +5899,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q93" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R93">
         <v>222647</v>
@@ -5919,10 +5907,10 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -5931,13 +5919,13 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F94">
         <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H94" t="s">
         <v>21</v>
@@ -5946,7 +5934,7 @@
         <v>21</v>
       </c>
       <c r="J94" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K94" s="10">
         <v>44916.375</v>
@@ -5955,10 +5943,10 @@
         <v>44916.625</v>
       </c>
       <c r="M94" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O94" s="12">
         <v>6.0988100000000003</v>
@@ -5967,7 +5955,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R94">
         <v>222647</v>
@@ -5975,10 +5963,10 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -5987,13 +5975,13 @@
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F95">
         <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H95" t="s">
         <v>21</v>
@@ -6002,7 +5990,7 @@
         <v>21</v>
       </c>
       <c r="J95" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K95" s="10">
         <v>44937.375</v>
@@ -6011,10 +5999,10 @@
         <v>44937.625</v>
       </c>
       <c r="M95" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O95" s="12">
         <v>6.0988100000000003</v>
@@ -6023,7 +6011,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q95" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R95">
         <v>222647</v>
@@ -6031,10 +6019,10 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -6043,13 +6031,13 @@
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F96">
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H96" t="s">
         <v>21</v>
@@ -6058,7 +6046,7 @@
         <v>21</v>
       </c>
       <c r="J96" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K96" s="10">
         <v>44939.375</v>
@@ -6067,10 +6055,10 @@
         <v>44939.625</v>
       </c>
       <c r="M96" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O96" s="12">
         <v>6.0988100000000003</v>
@@ -6079,7 +6067,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q96" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R96">
         <v>222647</v>
@@ -6087,10 +6075,10 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -6099,13 +6087,13 @@
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F97">
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H97" t="s">
         <v>21</v>
@@ -6114,7 +6102,7 @@
         <v>21</v>
       </c>
       <c r="J97" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K97" s="10">
         <v>44942.375</v>
@@ -6123,10 +6111,10 @@
         <v>44942.625</v>
       </c>
       <c r="M97" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O97" s="12">
         <v>6.0988100000000003</v>
@@ -6135,7 +6123,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q97" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R97">
         <v>222647</v>
@@ -6143,10 +6131,10 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -6155,13 +6143,13 @@
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F98">
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H98" t="s">
         <v>21</v>
@@ -6170,7 +6158,7 @@
         <v>21</v>
       </c>
       <c r="J98" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K98" s="10">
         <v>44944.375</v>
@@ -6179,10 +6167,10 @@
         <v>44944.625</v>
       </c>
       <c r="M98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O98" s="12">
         <v>6.0988100000000003</v>
@@ -6191,7 +6179,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q98" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R98">
         <v>222647</v>
@@ -6199,10 +6187,10 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
@@ -6211,13 +6199,13 @@
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H99" t="s">
         <v>21</v>
@@ -6226,7 +6214,7 @@
         <v>21</v>
       </c>
       <c r="J99" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K99" s="10">
         <v>44946.375</v>
@@ -6235,10 +6223,10 @@
         <v>44946.625</v>
       </c>
       <c r="M99" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N99" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O99" s="12">
         <v>6.0988100000000003</v>
@@ -6247,7 +6235,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q99" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R99">
         <v>222647</v>
@@ -6255,10 +6243,10 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
@@ -6267,13 +6255,13 @@
         <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F100">
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H100" t="s">
         <v>21</v>
@@ -6282,7 +6270,7 @@
         <v>21</v>
       </c>
       <c r="J100" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K100" s="10">
         <v>44949.375</v>
@@ -6291,10 +6279,10 @@
         <v>44949.625</v>
       </c>
       <c r="M100" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O100" s="12">
         <v>6.0988100000000003</v>
@@ -6303,7 +6291,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q100" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R100">
         <v>222647</v>
@@ -6311,10 +6299,10 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -6323,13 +6311,13 @@
         <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F101">
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H101" t="s">
         <v>21</v>
@@ -6338,7 +6326,7 @@
         <v>21</v>
       </c>
       <c r="J101" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K101" s="10">
         <v>44951.375</v>
@@ -6347,10 +6335,10 @@
         <v>44951.625</v>
       </c>
       <c r="M101" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O101" s="12">
         <v>6.0988100000000003</v>
@@ -6359,7 +6347,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q101" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R101">
         <v>222647</v>
@@ -6367,10 +6355,10 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -6379,13 +6367,13 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F102">
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H102" t="s">
         <v>21</v>
@@ -6394,7 +6382,7 @@
         <v>21</v>
       </c>
       <c r="J102" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K102" s="10">
         <v>44953.375</v>
@@ -6403,10 +6391,10 @@
         <v>44953.625</v>
       </c>
       <c r="M102" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N102" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O102" s="12">
         <v>6.0988100000000003</v>
@@ -6415,7 +6403,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q102" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R102">
         <v>222647</v>
@@ -6423,10 +6411,10 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -6435,13 +6423,13 @@
         <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F103">
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H103" t="s">
         <v>21</v>
@@ -6450,7 +6438,7 @@
         <v>21</v>
       </c>
       <c r="J103" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K103" s="10">
         <v>44956.375</v>
@@ -6459,10 +6447,10 @@
         <v>44956.625</v>
       </c>
       <c r="M103" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O103" s="12">
         <v>6.0988100000000003</v>
@@ -6471,7 +6459,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q103" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R103">
         <v>222647</v>
@@ -6479,10 +6467,10 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
@@ -6491,13 +6479,13 @@
         <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F104">
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H104" t="s">
         <v>21</v>
@@ -6506,7 +6494,7 @@
         <v>21</v>
       </c>
       <c r="J104" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K104" s="10">
         <v>44958.375</v>
@@ -6515,10 +6503,10 @@
         <v>44958.625</v>
       </c>
       <c r="M104" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O104" s="12">
         <v>6.0988100000000003</v>
@@ -6527,7 +6515,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q104" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R104">
         <v>222647</v>
@@ -6535,10 +6523,10 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
@@ -6547,13 +6535,13 @@
         <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F105">
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H105" t="s">
         <v>21</v>
@@ -6562,7 +6550,7 @@
         <v>21</v>
       </c>
       <c r="J105" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K105" s="10">
         <v>44960.375</v>
@@ -6571,10 +6559,10 @@
         <v>44960.625</v>
       </c>
       <c r="M105" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O105" s="12">
         <v>6.0988100000000003</v>
@@ -6583,7 +6571,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q105" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R105">
         <v>222647</v>
@@ -6591,10 +6579,10 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -6603,13 +6591,13 @@
         <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F106">
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H106" t="s">
         <v>21</v>
@@ -6618,7 +6606,7 @@
         <v>21</v>
       </c>
       <c r="J106" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K106" s="10">
         <v>44963.375</v>
@@ -6627,10 +6615,10 @@
         <v>44963.625</v>
       </c>
       <c r="M106" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O106" s="12">
         <v>6.0988100000000003</v>
@@ -6639,7 +6627,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q106" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R106">
         <v>222647</v>
@@ -6647,10 +6635,10 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -6659,13 +6647,13 @@
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F107">
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H107" t="s">
         <v>21</v>
@@ -6674,7 +6662,7 @@
         <v>21</v>
       </c>
       <c r="J107" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K107" s="10">
         <v>44965.375</v>
@@ -6683,10 +6671,10 @@
         <v>44965.625</v>
       </c>
       <c r="M107" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O107" s="12">
         <v>6.0988100000000003</v>
@@ -6695,7 +6683,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q107" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R107">
         <v>222647</v>
@@ -6703,10 +6691,10 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
@@ -6715,13 +6703,13 @@
         <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F108">
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H108" t="s">
         <v>21</v>
@@ -6730,7 +6718,7 @@
         <v>21</v>
       </c>
       <c r="J108" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K108" s="10">
         <v>44967.375</v>
@@ -6739,10 +6727,10 @@
         <v>44967.625</v>
       </c>
       <c r="M108" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O108" s="12">
         <v>6.0988100000000003</v>
@@ -6751,7 +6739,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q108" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R108">
         <v>222647</v>
@@ -6759,10 +6747,10 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
@@ -6771,13 +6759,13 @@
         <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F109">
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H109" t="s">
         <v>21</v>
@@ -6786,7 +6774,7 @@
         <v>21</v>
       </c>
       <c r="J109" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K109" s="10">
         <v>44979.375</v>
@@ -6795,10 +6783,10 @@
         <v>44979.625</v>
       </c>
       <c r="M109" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O109" s="12">
         <v>6.0988100000000003</v>
@@ -6807,7 +6795,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q109" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R109">
         <v>222647</v>
@@ -6815,10 +6803,10 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
@@ -6827,13 +6815,13 @@
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F110">
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H110" t="s">
         <v>21</v>
@@ -6842,7 +6830,7 @@
         <v>21</v>
       </c>
       <c r="J110" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K110" s="10">
         <v>44981.375</v>
@@ -6851,10 +6839,10 @@
         <v>44981.625</v>
       </c>
       <c r="M110" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O110" s="12">
         <v>6.0988100000000003</v>
@@ -6863,7 +6851,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q110" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R110">
         <v>222647</v>
@@ -6871,10 +6859,10 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -6883,13 +6871,13 @@
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F111">
         <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H111" t="s">
         <v>21</v>
@@ -6898,7 +6886,7 @@
         <v>21</v>
       </c>
       <c r="J111" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K111" s="10">
         <v>44984.375</v>
@@ -6907,10 +6895,10 @@
         <v>44984.625</v>
       </c>
       <c r="M111" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O111" s="12">
         <v>6.0988100000000003</v>
@@ -6919,7 +6907,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q111" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R111">
         <v>222647</v>
@@ -6927,10 +6915,10 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
         <v>17</v>
@@ -6939,13 +6927,13 @@
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H112" t="s">
         <v>21</v>
@@ -6954,7 +6942,7 @@
         <v>21</v>
       </c>
       <c r="J112" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K112" s="10">
         <v>44986.375</v>
@@ -6963,10 +6951,10 @@
         <v>44986.625</v>
       </c>
       <c r="M112" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O112" s="12">
         <v>6.0988100000000003</v>
@@ -6975,7 +6963,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q112" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R112">
         <v>222647</v>
@@ -6983,10 +6971,10 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C113" t="s">
         <v>17</v>
@@ -6995,13 +6983,13 @@
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F113">
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H113" t="s">
         <v>21</v>
@@ -7010,7 +6998,7 @@
         <v>21</v>
       </c>
       <c r="J113" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K113" s="10">
         <v>44988.375</v>
@@ -7019,10 +7007,10 @@
         <v>44988.625</v>
       </c>
       <c r="M113" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N113" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O113" s="12">
         <v>6.0988100000000003</v>
@@ -7031,7 +7019,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q113" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R113">
         <v>222647</v>
@@ -7039,10 +7027,10 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C114" t="s">
         <v>17</v>
@@ -7051,13 +7039,13 @@
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F114">
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H114" t="s">
         <v>21</v>
@@ -7066,7 +7054,7 @@
         <v>21</v>
       </c>
       <c r="J114" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K114" s="10">
         <v>44991.375</v>
@@ -7075,10 +7063,10 @@
         <v>44991.625</v>
       </c>
       <c r="M114" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O114" s="12">
         <v>6.0988100000000003</v>
@@ -7087,7 +7075,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q114" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R114">
         <v>222647</v>
@@ -7095,10 +7083,10 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -7107,13 +7095,13 @@
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F115">
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H115" t="s">
         <v>21</v>
@@ -7122,7 +7110,7 @@
         <v>21</v>
       </c>
       <c r="J115" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K115" s="10">
         <v>44993.375</v>
@@ -7131,10 +7119,10 @@
         <v>44993.625</v>
       </c>
       <c r="M115" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O115" s="12">
         <v>6.0988100000000003</v>
@@ -7143,7 +7131,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q115" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R115">
         <v>222647</v>
@@ -7151,10 +7139,10 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
@@ -7163,13 +7151,13 @@
         <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F116">
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H116" t="s">
         <v>21</v>
@@ -7178,7 +7166,7 @@
         <v>21</v>
       </c>
       <c r="J116" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K116" s="10">
         <v>44995.375</v>
@@ -7187,10 +7175,10 @@
         <v>44995.625</v>
       </c>
       <c r="M116" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N116" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O116" s="12">
         <v>6.0988100000000003</v>
@@ -7199,7 +7187,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q116" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R116">
         <v>222647</v>
@@ -7207,10 +7195,10 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C117" t="s">
         <v>17</v>
@@ -7219,13 +7207,13 @@
         <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F117">
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H117" t="s">
         <v>21</v>
@@ -7234,7 +7222,7 @@
         <v>21</v>
       </c>
       <c r="J117" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K117" s="10">
         <v>44998.375</v>
@@ -7243,10 +7231,10 @@
         <v>44998.625</v>
       </c>
       <c r="M117" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N117" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O117" s="12">
         <v>6.0988100000000003</v>
@@ -7255,7 +7243,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q117" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R117">
         <v>222647</v>
@@ -7263,10 +7251,10 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
@@ -7275,13 +7263,13 @@
         <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H118" t="s">
         <v>21</v>
@@ -7290,7 +7278,7 @@
         <v>21</v>
       </c>
       <c r="J118" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K118" s="10">
         <v>45000.375</v>
@@ -7299,10 +7287,10 @@
         <v>45000.625</v>
       </c>
       <c r="M118" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O118" s="12">
         <v>6.0988100000000003</v>
@@ -7311,7 +7299,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q118" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R118">
         <v>222647</v>
@@ -7319,10 +7307,10 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
@@ -7331,13 +7319,13 @@
         <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F119">
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H119" t="s">
         <v>21</v>
@@ -7346,7 +7334,7 @@
         <v>21</v>
       </c>
       <c r="J119" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K119" s="10">
         <v>45002.375</v>
@@ -7355,10 +7343,10 @@
         <v>45002.625</v>
       </c>
       <c r="M119" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O119" s="12">
         <v>6.0988100000000003</v>
@@ -7367,7 +7355,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q119" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R119">
         <v>222647</v>
@@ -7375,10 +7363,10 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C120" t="s">
         <v>17</v>
@@ -7387,13 +7375,13 @@
         <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F120">
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H120" t="s">
         <v>21</v>
@@ -7402,7 +7390,7 @@
         <v>21</v>
       </c>
       <c r="J120" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K120" s="10">
         <v>45005.375</v>
@@ -7411,10 +7399,10 @@
         <v>45005.625</v>
       </c>
       <c r="M120" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N120" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O120" s="12">
         <v>6.0988100000000003</v>
@@ -7423,7 +7411,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q120" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R120">
         <v>222647</v>
@@ -7431,10 +7419,10 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -7443,13 +7431,13 @@
         <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F121">
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H121" t="s">
         <v>21</v>
@@ -7458,7 +7446,7 @@
         <v>21</v>
       </c>
       <c r="J121" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K121" s="10">
         <v>45007.375</v>
@@ -7467,10 +7455,10 @@
         <v>45007.625</v>
       </c>
       <c r="M121" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O121" s="12">
         <v>6.0988100000000003</v>
@@ -7479,7 +7467,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q121" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R121">
         <v>222647</v>
@@ -7487,10 +7475,10 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
         <v>17</v>
@@ -7499,13 +7487,13 @@
         <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F122">
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H122" t="s">
         <v>21</v>
@@ -7514,7 +7502,7 @@
         <v>21</v>
       </c>
       <c r="J122" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K122" s="10">
         <v>45009.375</v>
@@ -7523,10 +7511,10 @@
         <v>45009.625</v>
       </c>
       <c r="M122" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O122" s="12">
         <v>6.0988100000000003</v>
@@ -7535,7 +7523,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q122" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R122">
         <v>222647</v>
@@ -7543,10 +7531,10 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C123" t="s">
         <v>17</v>
@@ -7555,13 +7543,13 @@
         <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F123">
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H123" t="s">
         <v>21</v>
@@ -7570,7 +7558,7 @@
         <v>21</v>
       </c>
       <c r="J123" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K123" s="10">
         <v>45012.375</v>
@@ -7579,10 +7567,10 @@
         <v>45012.625</v>
       </c>
       <c r="M123" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N123" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O123" s="12">
         <v>6.0988100000000003</v>
@@ -7591,7 +7579,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q123" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R123">
         <v>222647</v>
@@ -7599,10 +7587,10 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
@@ -7611,13 +7599,13 @@
         <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F124">
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H124" t="s">
         <v>21</v>
@@ -7626,7 +7614,7 @@
         <v>21</v>
       </c>
       <c r="J124" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K124" s="10">
         <v>45014.375</v>
@@ -7635,10 +7623,10 @@
         <v>45014.625</v>
       </c>
       <c r="M124" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N124" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O124" s="12">
         <v>6.0988100000000003</v>
@@ -7647,7 +7635,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q124" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R124">
         <v>222647</v>
@@ -7655,10 +7643,10 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
@@ -7667,13 +7655,13 @@
         <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F125">
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H125" t="s">
         <v>21</v>
@@ -7682,7 +7670,7 @@
         <v>21</v>
       </c>
       <c r="J125" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K125" s="10">
         <v>45016.375</v>
@@ -7691,10 +7679,10 @@
         <v>45016.625</v>
       </c>
       <c r="M125" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N125" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O125" s="12">
         <v>6.0988100000000003</v>
@@ -7703,7 +7691,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q125" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R125">
         <v>222647</v>
@@ -7711,10 +7699,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C126" t="s">
         <v>17</v>
@@ -7723,13 +7711,13 @@
         <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F126">
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H126" t="s">
         <v>21</v>
@@ -7738,7 +7726,7 @@
         <v>21</v>
       </c>
       <c r="J126" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K126" s="10">
         <v>45035.375</v>
@@ -7747,10 +7735,10 @@
         <v>45035.625</v>
       </c>
       <c r="M126" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N126" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O126" s="12">
         <v>6.0988100000000003</v>
@@ -7759,7 +7747,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q126" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R126">
         <v>222647</v>
@@ -7767,10 +7755,10 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s">
         <v>17</v>
@@ -7779,13 +7767,13 @@
         <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F127">
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H127" t="s">
         <v>21</v>
@@ -7794,7 +7782,7 @@
         <v>21</v>
       </c>
       <c r="J127" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K127" s="10">
         <v>45037.375</v>
@@ -7803,10 +7791,10 @@
         <v>45037.625</v>
       </c>
       <c r="M127" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O127" s="12">
         <v>6.0988100000000003</v>
@@ -7815,7 +7803,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q127" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R127">
         <v>222647</v>
@@ -7823,10 +7811,10 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C128" t="s">
         <v>17</v>
@@ -7835,13 +7823,13 @@
         <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F128">
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H128" t="s">
         <v>21</v>
@@ -7850,7 +7838,7 @@
         <v>21</v>
       </c>
       <c r="J128" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K128" s="10">
         <v>45040.375</v>
@@ -7859,10 +7847,10 @@
         <v>45040.625</v>
       </c>
       <c r="M128" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O128" s="12">
         <v>6.0988100000000003</v>
@@ -7871,7 +7859,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q128" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R128">
         <v>222647</v>
@@ -7879,10 +7867,10 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C129" t="s">
         <v>17</v>
@@ -7891,13 +7879,13 @@
         <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F129">
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H129" t="s">
         <v>21</v>
@@ -7906,7 +7894,7 @@
         <v>21</v>
       </c>
       <c r="J129" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K129" s="10">
         <v>45042.375</v>
@@ -7915,10 +7903,10 @@
         <v>45042.625</v>
       </c>
       <c r="M129" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O129" s="12">
         <v>6.0988100000000003</v>
@@ -7927,7 +7915,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q129" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R129">
         <v>222647</v>
@@ -7935,10 +7923,10 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
@@ -7947,13 +7935,13 @@
         <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F130">
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H130" t="s">
         <v>21</v>
@@ -7962,7 +7950,7 @@
         <v>21</v>
       </c>
       <c r="J130" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K130" s="10">
         <v>45044.375</v>
@@ -7971,10 +7959,10 @@
         <v>45044.625</v>
       </c>
       <c r="M130" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O130" s="12">
         <v>6.0988100000000003</v>
@@ -7983,7 +7971,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q130" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R130">
         <v>222647</v>
@@ -7991,10 +7979,10 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C131" t="s">
         <v>17</v>
@@ -8003,13 +7991,13 @@
         <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F131">
         <v>2</v>
       </c>
       <c r="G131" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H131" t="s">
         <v>21</v>
@@ -8018,7 +8006,7 @@
         <v>21</v>
       </c>
       <c r="J131" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K131" s="10">
         <v>45049.375</v>
@@ -8027,10 +8015,10 @@
         <v>45049.625</v>
       </c>
       <c r="M131" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O131" s="12">
         <v>6.0988100000000003</v>
@@ -8039,7 +8027,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q131" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R131">
         <v>222647</v>
@@ -8047,10 +8035,10 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B132" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C132" t="s">
         <v>17</v>
@@ -8059,13 +8047,13 @@
         <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F132">
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H132" t="s">
         <v>21</v>
@@ -8074,7 +8062,7 @@
         <v>21</v>
       </c>
       <c r="J132" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K132" s="10">
         <v>45051.375</v>
@@ -8083,10 +8071,10 @@
         <v>45051.625</v>
       </c>
       <c r="M132" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O132" s="12">
         <v>6.0988100000000003</v>
@@ -8095,7 +8083,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q132" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R132">
         <v>222647</v>
@@ -8103,10 +8091,10 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B133" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C133" t="s">
         <v>17</v>
@@ -8115,13 +8103,13 @@
         <v>16</v>
       </c>
       <c r="E133" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F133">
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H133" t="s">
         <v>21</v>
@@ -8130,7 +8118,7 @@
         <v>21</v>
       </c>
       <c r="J133" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K133" s="10">
         <v>45054.375</v>
@@ -8139,10 +8127,10 @@
         <v>45054.625</v>
       </c>
       <c r="M133" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N133" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O133" s="12">
         <v>6.0988100000000003</v>
@@ -8151,7 +8139,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q133" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R133">
         <v>222647</v>
@@ -8159,10 +8147,10 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C134" t="s">
         <v>17</v>
@@ -8171,13 +8159,13 @@
         <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F134">
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H134" t="s">
         <v>21</v>
@@ -8186,7 +8174,7 @@
         <v>21</v>
       </c>
       <c r="J134" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K134" s="10">
         <v>45056.375</v>
@@ -8195,10 +8183,10 @@
         <v>45056.625</v>
       </c>
       <c r="M134" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N134" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O134" s="12">
         <v>6.0988100000000003</v>
@@ -8207,7 +8195,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q134" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R134">
         <v>222647</v>
@@ -8215,10 +8203,10 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C135" t="s">
         <v>17</v>
@@ -8227,13 +8215,13 @@
         <v>16</v>
       </c>
       <c r="E135" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F135">
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H135" t="s">
         <v>21</v>
@@ -8242,7 +8230,7 @@
         <v>21</v>
       </c>
       <c r="J135" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K135" s="10">
         <v>45058.375</v>
@@ -8251,10 +8239,10 @@
         <v>45058.625</v>
       </c>
       <c r="M135" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N135" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O135" s="12">
         <v>6.0988100000000003</v>
@@ -8263,7 +8251,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q135" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R135">
         <v>222647</v>
@@ -8271,10 +8259,10 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C136" t="s">
         <v>17</v>
@@ -8283,13 +8271,13 @@
         <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F136">
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H136" t="s">
         <v>21</v>
@@ -8298,7 +8286,7 @@
         <v>21</v>
       </c>
       <c r="J136" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K136" s="10">
         <v>45061.375</v>
@@ -8307,10 +8295,10 @@
         <v>45061.625</v>
       </c>
       <c r="M136" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N136" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O136" s="12">
         <v>6.0988100000000003</v>
@@ -8319,7 +8307,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q136" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R136">
         <v>222647</v>
@@ -8327,10 +8315,10 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
@@ -8339,13 +8327,13 @@
         <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F137">
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H137" t="s">
         <v>21</v>
@@ -8354,7 +8342,7 @@
         <v>21</v>
       </c>
       <c r="J137" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K137" s="10">
         <v>45063.375</v>
@@ -8363,10 +8351,10 @@
         <v>45063.625</v>
       </c>
       <c r="M137" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N137" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O137" s="12">
         <v>6.0988100000000003</v>
@@ -8375,7 +8363,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q137" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R137">
         <v>222647</v>
@@ -8383,10 +8371,10 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
@@ -8395,13 +8383,13 @@
         <v>16</v>
       </c>
       <c r="E138" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F138">
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H138" t="s">
         <v>21</v>
@@ -8410,7 +8398,7 @@
         <v>21</v>
       </c>
       <c r="J138" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K138" s="10">
         <v>45065.375</v>
@@ -8419,10 +8407,10 @@
         <v>45065.625</v>
       </c>
       <c r="M138" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N138" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O138" s="12">
         <v>6.0988100000000003</v>
@@ -8431,7 +8419,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q138" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R138">
         <v>222647</v>
@@ -8439,10 +8427,10 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B139" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -8451,13 +8439,13 @@
         <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F139">
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H139" t="s">
         <v>21</v>
@@ -8466,7 +8454,7 @@
         <v>21</v>
       </c>
       <c r="J139" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K139" s="10">
         <v>45068.375</v>
@@ -8475,10 +8463,10 @@
         <v>45068.625</v>
       </c>
       <c r="M139" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N139" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O139" s="12">
         <v>6.0988100000000003</v>
@@ -8487,7 +8475,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q139" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R139">
         <v>222647</v>
@@ -8495,10 +8483,10 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
@@ -8507,13 +8495,13 @@
         <v>16</v>
       </c>
       <c r="E140" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F140">
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H140" t="s">
         <v>21</v>
@@ -8522,7 +8510,7 @@
         <v>21</v>
       </c>
       <c r="J140" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K140" s="10">
         <v>45070.375</v>
@@ -8531,10 +8519,10 @@
         <v>45070.625</v>
       </c>
       <c r="M140" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O140" s="12">
         <v>6.0988100000000003</v>
@@ -8543,7 +8531,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q140" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R140">
         <v>222647</v>
@@ -8551,10 +8539,10 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -8563,13 +8551,13 @@
         <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F141">
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H141" t="s">
         <v>21</v>
@@ -8578,7 +8566,7 @@
         <v>21</v>
       </c>
       <c r="J141" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K141" s="10">
         <v>45072.375</v>
@@ -8587,10 +8575,10 @@
         <v>45072.625</v>
       </c>
       <c r="M141" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N141" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O141" s="12">
         <v>6.0988100000000003</v>
@@ -8599,7 +8587,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q141" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R141">
         <v>222647</v>
@@ -8607,10 +8595,10 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -8619,13 +8607,13 @@
         <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F142">
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H142" t="s">
         <v>21</v>
@@ -8634,7 +8622,7 @@
         <v>21</v>
       </c>
       <c r="J142" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K142" s="10">
         <v>45084.375</v>
@@ -8643,10 +8631,10 @@
         <v>45084.625</v>
       </c>
       <c r="M142" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N142" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O142" s="12">
         <v>6.0988100000000003</v>
@@ -8655,7 +8643,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q142" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R142">
         <v>222647</v>
@@ -8663,10 +8651,10 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C143" t="s">
         <v>17</v>
@@ -8675,13 +8663,13 @@
         <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F143">
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H143" t="s">
         <v>21</v>
@@ -8690,7 +8678,7 @@
         <v>21</v>
       </c>
       <c r="J143" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K143" s="10">
         <v>45086.375</v>
@@ -8699,10 +8687,10 @@
         <v>45086.625</v>
       </c>
       <c r="M143" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N143" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O143" s="12">
         <v>6.0988100000000003</v>
@@ -8711,7 +8699,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q143" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R143">
         <v>222647</v>
@@ -8719,10 +8707,10 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
@@ -8731,13 +8719,13 @@
         <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F144">
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H144" t="s">
         <v>21</v>
@@ -8746,7 +8734,7 @@
         <v>21</v>
       </c>
       <c r="J144" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K144" s="10">
         <v>45089.375</v>
@@ -8755,10 +8743,10 @@
         <v>45089.625</v>
       </c>
       <c r="M144" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N144" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O144" s="12">
         <v>6.0988100000000003</v>
@@ -8767,7 +8755,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q144" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R144">
         <v>222647</v>
@@ -8775,10 +8763,10 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -8787,13 +8775,13 @@
         <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F145">
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H145" t="s">
         <v>21</v>
@@ -8802,7 +8790,7 @@
         <v>21</v>
       </c>
       <c r="J145" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K145" s="10">
         <v>45091.375</v>
@@ -8811,10 +8799,10 @@
         <v>45091.625</v>
       </c>
       <c r="M145" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O145" s="12">
         <v>6.0988100000000003</v>
@@ -8823,7 +8811,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q145" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R145">
         <v>222647</v>
@@ -8831,10 +8819,10 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
@@ -8843,13 +8831,13 @@
         <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F146">
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H146" t="s">
         <v>21</v>
@@ -8858,7 +8846,7 @@
         <v>21</v>
       </c>
       <c r="J146" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K146" s="10">
         <v>45093.375</v>
@@ -8867,10 +8855,10 @@
         <v>45093.625</v>
       </c>
       <c r="M146" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O146" s="12">
         <v>6.0988100000000003</v>
@@ -8879,7 +8867,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q146" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R146">
         <v>222647</v>
@@ -8887,10 +8875,10 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
@@ -8899,13 +8887,13 @@
         <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F147">
         <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H147" t="s">
         <v>21</v>
@@ -8914,7 +8902,7 @@
         <v>21</v>
       </c>
       <c r="J147" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K147" s="10">
         <v>45096.375</v>
@@ -8923,10 +8911,10 @@
         <v>45096.625</v>
       </c>
       <c r="M147" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N147" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O147" s="12">
         <v>6.0988100000000003</v>
@@ -8935,7 +8923,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q147" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R147">
         <v>222647</v>
@@ -8943,10 +8931,10 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C148" t="s">
         <v>17</v>
@@ -8955,13 +8943,13 @@
         <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F148">
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H148" t="s">
         <v>21</v>
@@ -8970,7 +8958,7 @@
         <v>21</v>
       </c>
       <c r="J148" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K148" s="10">
         <v>45098.375</v>
@@ -8979,10 +8967,10 @@
         <v>45098.625</v>
       </c>
       <c r="M148" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O148" s="12">
         <v>6.0988100000000003</v>
@@ -8991,7 +8979,7 @@
         <v>49.994160000000001</v>
       </c>
       <c r="Q148" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R148">
         <v>222647</v>
